--- a/data/trans_dic/P79_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,35</t>
+          <t>0,0; 0,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,75</t>
+          <t>0,27; 4,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,44</t>
+          <t>0,59; 2,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,59</t>
+          <t>0,61; 2,54</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,5</t>
+          <t>0,98; 4,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,0</t>
+          <t>1,06; 4,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,5</t>
+          <t>1,28; 3,52</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,88</t>
+          <t>0,24; 3,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,7</t>
+          <t>0,39; 2,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,18</t>
+          <t>0,45; 2,16</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,88</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,71</t>
+          <t>0,33; 2,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,36</t>
+          <t>0,06; 1,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,73</t>
+          <t>0,32; 1,77</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,98</t>
+          <t>1,84; 5,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,63</t>
+          <t>1,11; 3,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,0</t>
+          <t>1,8; 3,97</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,83</t>
+          <t>2,06; 4,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,76</t>
+          <t>0,95; 2,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,4</t>
+          <t>1,66; 3,26</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,79</t>
+          <t>1,58; 2,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,86</t>
+          <t>1,09; 1,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,14</t>
+          <t>1,4; 2,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P79_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,32</t>
+          <t>0,0; 0,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,18</t>
+          <t>0,27; 3,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,62</t>
+          <t>0,52; 2,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,54</t>
+          <t>0,6; 2,59</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,23</t>
+          <t>1,04; 4,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,03</t>
+          <t>1,01; 4,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,52</t>
+          <t>1,3; 3,5</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,14</t>
+          <t>0,25; 3,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,83</t>
+          <t>0,35; 2,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,16</t>
+          <t>0,43; 2,18</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,79</t>
+          <t>0,32; 2,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,37</t>
+          <t>0,06; 1,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,77</t>
+          <t>0,32; 1,73</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,69</t>
+          <t>2,01; 5,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,66</t>
+          <t>1,13; 3,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,97</t>
+          <t>1,72; 4,0</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,86</t>
+          <t>2,05; 4,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,79</t>
+          <t>0,91; 2,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,26</t>
+          <t>1,7; 3,4</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,77</t>
+          <t>1,56; 2,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,89</t>
+          <t>1,1; 1,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,12</t>
+          <t>1,43; 2,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P79_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,29%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,35</t>
+          <t>0,0; 0,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,28%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,75</t>
+          <t>0,27; 3,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,44</t>
+          <t>0,52; 2,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,59</t>
+          <t>0,64; 2,79</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,5</t>
+          <t>1,05; 4,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,0</t>
+          <t>1,0; 4,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,5</t>
+          <t>1,3; 3,49</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,88</t>
+          <t>0,25; 3,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,7</t>
+          <t>0,25; 2,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,18</t>
+          <t>0,36; 1,96</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,88</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,8%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,71</t>
+          <t>0,31; 2,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,36</t>
+          <t>0,06; 1,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,73</t>
+          <t>0,32; 1,71</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,98</t>
+          <t>1,96; 5,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,63</t>
+          <t>0,75; 3,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,0</t>
+          <t>1,42; 3,75</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,83</t>
+          <t>1,06; 4,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,76</t>
+          <t>0,91; 2,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,4</t>
+          <t>1,23; 3,05</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,61%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,79</t>
+          <t>1,36; 2,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,86</t>
+          <t>1,0; 1,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,14</t>
+          <t>1,27; 2,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P79_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P79_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que sufre violencia física, emocional o sexual</t>
+          <t>Población que en los útlimos 2 años ha sufrido algún tipo de violencia física, emocional o sexual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,32</t>
+          <t>0,0; 0,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,99</t>
+          <t>0,28; 4,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,41</t>
+          <t>0,49; 2,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,79</t>
+          <t>0,59; 2,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,5</t>
+          <t>1,04; 4,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,01</t>
+          <t>1,1; 4,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,49</t>
+          <t>1,33; 3,51</t>
         </is>
       </c>
     </row>
@@ -729,7 +730,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,97</t>
+          <t>0,24; 3,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +740,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,96</t>
+          <t>0,42; 2,03</t>
         </is>
       </c>
     </row>
@@ -784,19 +785,19 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,64</t>
+          <t>0,32; 2,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,28</t>
+          <t>0,12; 1,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,71</t>
+          <t>0,28; 1,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,96</t>
+          <t>1,97; 6,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,08</t>
+          <t>0,72; 3,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,75</t>
+          <t>1,48; 3,75</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,16</t>
+          <t>1,02; 4,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,68</t>
+          <t>0,89; 2,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,05</t>
+          <t>1,15; 2,93</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,62</t>
+          <t>1,35; 2,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,74</t>
+          <t>0,98; 1,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,01</t>
+          <t>1,28; 1,99</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los útlimos 2 años ha sufrido algún tipo de violencia física, emocional o sexual</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1735</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1038</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8265</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8307</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6981</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6242</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13223</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1437; 21408</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2520; 12567</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6085; 28117</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6942</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14619</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3301; 13397</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3842; 14654</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8839; 23336</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3517</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7710</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>746; 10986</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1204; 10966</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3313; 16038</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1483</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1483</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1225</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6386</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4997</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3121</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>865; 7808</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>307; 4957</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1472; 8820</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>21328</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>15324</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>36652</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>12258; 38365</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>6070; 27426</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>21762; 55077</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>23356</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>11549</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>34905</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>9421; 37733</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>6375; 19228</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>18943; 48099</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>65414</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>49148</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>114562</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>46810; 90543</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>35694; 65259</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>91329; 141680</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>